--- a/data/pca/factorExposure/factorExposure_2015-06-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02016383971641873</v>
+        <v>-0.01024455935120124</v>
       </c>
       <c r="C2">
-        <v>0.01917986322515149</v>
+        <v>-0.05176297051661135</v>
       </c>
       <c r="D2">
-        <v>-0.1052584143635354</v>
+        <v>-0.1271339278722887</v>
       </c>
       <c r="E2">
-        <v>0.007958469421305507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02467103332585352</v>
+      </c>
+      <c r="F2">
+        <v>-0.03041492211403976</v>
+      </c>
+      <c r="G2">
+        <v>-0.1328443811379593</v>
+      </c>
+      <c r="H2">
+        <v>-0.03932661329857193</v>
+      </c>
+      <c r="I2">
+        <v>-0.1382473079570018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.0001585531862578071</v>
+        <v>0.0001686658969356015</v>
       </c>
       <c r="C3">
-        <v>0.0008357169631588758</v>
+        <v>-0.0005179098584438964</v>
       </c>
       <c r="D3">
-        <v>0.005333684413710106</v>
+        <v>0.0009848000653720254</v>
       </c>
       <c r="E3">
-        <v>-0.0002822529387799776</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.00586574863102828</v>
+      </c>
+      <c r="F3">
+        <v>0.001306602789510469</v>
+      </c>
+      <c r="G3">
+        <v>-0.006928550110899583</v>
+      </c>
+      <c r="H3">
+        <v>0.01246808118164889</v>
+      </c>
+      <c r="I3">
+        <v>0.002625794547882061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04395259107494565</v>
+        <v>-0.01964707852025218</v>
       </c>
       <c r="C4">
-        <v>0.07217712785606054</v>
+        <v>-0.1045469733151403</v>
       </c>
       <c r="D4">
-        <v>-0.1324828858338531</v>
+        <v>-0.1328200874895946</v>
       </c>
       <c r="E4">
-        <v>0.08224961491155533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01035969704257414</v>
+      </c>
+      <c r="F4">
+        <v>-0.09115778493070197</v>
+      </c>
+      <c r="G4">
+        <v>-0.009587460749695451</v>
+      </c>
+      <c r="H4">
+        <v>-0.05030954962655306</v>
+      </c>
+      <c r="I4">
+        <v>0.06520799247367759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.0212827172155347</v>
+        <v>-0.02730522362716536</v>
       </c>
       <c r="C6">
-        <v>0.01232617683523538</v>
+        <v>-0.03359715898003274</v>
       </c>
       <c r="D6">
-        <v>-0.1369505281267333</v>
+        <v>-0.1206101978440174</v>
       </c>
       <c r="E6">
-        <v>0.03592620439559358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.05874135360831041</v>
+      </c>
+      <c r="F6">
+        <v>-0.04719780735481909</v>
+      </c>
+      <c r="G6">
+        <v>-0.007681976275350203</v>
+      </c>
+      <c r="H6">
+        <v>-0.05056694003717566</v>
+      </c>
+      <c r="I6">
+        <v>0.03129828824866341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.002553672141234466</v>
+        <v>-0.009429627270894031</v>
       </c>
       <c r="C7">
-        <v>0.02354891919615467</v>
+        <v>-0.03575274563949908</v>
       </c>
       <c r="D7">
-        <v>-0.1124511837116606</v>
+        <v>-0.09676523374330596</v>
       </c>
       <c r="E7">
-        <v>0.002795509119345849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05351214971351489</v>
+      </c>
+      <c r="F7">
+        <v>-0.01046430061570891</v>
+      </c>
+      <c r="G7">
+        <v>-0.008860579758398882</v>
+      </c>
+      <c r="H7">
+        <v>-0.07924583679942084</v>
+      </c>
+      <c r="I7">
+        <v>0.003612260096636601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.006021759643434737</v>
+        <v>0.007746285170017671</v>
       </c>
       <c r="C8">
-        <v>0.02471800471058495</v>
+        <v>-0.03259750666098441</v>
       </c>
       <c r="D8">
-        <v>-0.07905087905566649</v>
+        <v>-0.07567772520294573</v>
       </c>
       <c r="E8">
-        <v>0.0263255557058831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.0374376378696565</v>
+      </c>
+      <c r="F8">
+        <v>-0.05412721410126776</v>
+      </c>
+      <c r="G8">
+        <v>-0.06521407358000053</v>
+      </c>
+      <c r="H8">
+        <v>0.002002618389874524</v>
+      </c>
+      <c r="I8">
+        <v>0.01392032656713259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0360707452593954</v>
+        <v>-0.01369543651989938</v>
       </c>
       <c r="C9">
-        <v>0.06094883349260671</v>
+        <v>-0.08639802119875907</v>
       </c>
       <c r="D9">
-        <v>-0.131943355122805</v>
+        <v>-0.1149958511357512</v>
       </c>
       <c r="E9">
-        <v>0.0661216737115654</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01172942038910001</v>
+      </c>
+      <c r="F9">
+        <v>-0.06046021923809041</v>
+      </c>
+      <c r="G9">
+        <v>0.005345302240761332</v>
+      </c>
+      <c r="H9">
+        <v>-0.0658210252282015</v>
+      </c>
+      <c r="I9">
+        <v>0.03802044597864464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.170037711990688</v>
+        <v>-0.2382168193889599</v>
       </c>
       <c r="C10">
-        <v>-0.1717090199482983</v>
+        <v>0.09730364186565203</v>
       </c>
       <c r="D10">
-        <v>-0.005933216144137729</v>
+        <v>0.003658337148625135</v>
       </c>
       <c r="E10">
-        <v>0.04559536102921652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01135838869711235</v>
+      </c>
+      <c r="F10">
+        <v>-0.04386087893419786</v>
+      </c>
+      <c r="G10">
+        <v>0.003931831265103615</v>
+      </c>
+      <c r="H10">
+        <v>0.05695714026145735</v>
+      </c>
+      <c r="I10">
+        <v>-0.008792372008512099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01905467749793831</v>
+        <v>-0.01054814207810706</v>
       </c>
       <c r="C11">
-        <v>0.04072271278654588</v>
+        <v>-0.05461600555736218</v>
       </c>
       <c r="D11">
-        <v>-0.04769210393813883</v>
+        <v>-0.04404684578933035</v>
       </c>
       <c r="E11">
-        <v>-0.01594664968682248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01982292149320104</v>
+      </c>
+      <c r="F11">
+        <v>0.01242861076012199</v>
+      </c>
+      <c r="G11">
+        <v>-0.001687241651552529</v>
+      </c>
+      <c r="H11">
+        <v>-0.04790273190111688</v>
+      </c>
+      <c r="I11">
+        <v>0.05659365942437884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0197970325061606</v>
+        <v>-0.01061246125488755</v>
       </c>
       <c r="C12">
-        <v>0.03962098598090771</v>
+        <v>-0.04888372768535931</v>
       </c>
       <c r="D12">
-        <v>-0.06070887391599175</v>
+        <v>-0.04801046369625496</v>
       </c>
       <c r="E12">
-        <v>-0.00536123566186386</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01562877386645673</v>
+      </c>
+      <c r="F12">
+        <v>0.01568268182217053</v>
+      </c>
+      <c r="G12">
+        <v>0.01254032173009267</v>
+      </c>
+      <c r="H12">
+        <v>-0.07238988170950904</v>
+      </c>
+      <c r="I12">
+        <v>0.02263156037040483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.001563346758050855</v>
+        <v>0.003000386308551617</v>
       </c>
       <c r="C13">
-        <v>0.02227520217798259</v>
+        <v>-0.04536336275858751</v>
       </c>
       <c r="D13">
-        <v>-0.1434511413423714</v>
+        <v>-0.1496743975460662</v>
       </c>
       <c r="E13">
-        <v>0.0351376228201996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03970605318002084</v>
+      </c>
+      <c r="F13">
+        <v>-0.0353102944300325</v>
+      </c>
+      <c r="G13">
+        <v>-0.03161677277044363</v>
+      </c>
+      <c r="H13">
+        <v>-0.06120480113927824</v>
+      </c>
+      <c r="I13">
+        <v>-0.08016302571162678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.005638951803515258</v>
+        <v>-0.001193450577369808</v>
       </c>
       <c r="C14">
-        <v>0.01665321302448664</v>
+        <v>-0.02977121253803412</v>
       </c>
       <c r="D14">
-        <v>-0.09809256549052645</v>
+        <v>-0.1026114508424427</v>
       </c>
       <c r="E14">
-        <v>0.01042564596501807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05022204215399317</v>
+      </c>
+      <c r="F14">
+        <v>-0.03673054302417381</v>
+      </c>
+      <c r="G14">
+        <v>-0.03692617612430407</v>
+      </c>
+      <c r="H14">
+        <v>-0.1253562380927983</v>
+      </c>
+      <c r="I14">
+        <v>-0.002492514870250735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.00289355137048029</v>
+        <v>0.001450307185355327</v>
       </c>
       <c r="C15">
-        <v>0.01046995388312551</v>
+        <v>-0.0246250762921106</v>
       </c>
       <c r="D15">
-        <v>-0.03104160701107014</v>
+        <v>-0.05883121873621125</v>
       </c>
       <c r="E15">
-        <v>-0.004014824399377055</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.01004205357801317</v>
+      </c>
+      <c r="F15">
+        <v>-0.007297941600843936</v>
+      </c>
+      <c r="G15">
+        <v>-0.02412881016840327</v>
+      </c>
+      <c r="H15">
+        <v>-0.0307066386816696</v>
+      </c>
+      <c r="I15">
+        <v>0.02124477895211602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01858302592211552</v>
+        <v>-0.01057405781255442</v>
       </c>
       <c r="C16">
-        <v>0.03663819677154517</v>
+        <v>-0.04823554210738142</v>
       </c>
       <c r="D16">
-        <v>-0.05436417205490469</v>
+        <v>-0.04448798113697294</v>
       </c>
       <c r="E16">
-        <v>-0.007908003948724745</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02163456658144224</v>
+      </c>
+      <c r="F16">
+        <v>0.008423890857550903</v>
+      </c>
+      <c r="G16">
+        <v>0.009197944821882171</v>
+      </c>
+      <c r="H16">
+        <v>-0.05237252044806867</v>
+      </c>
+      <c r="I16">
+        <v>0.04780285480288619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.004296596805148828</v>
+        <v>-0.000414015400185936</v>
       </c>
       <c r="C19">
-        <v>0.0178910480362869</v>
+        <v>-0.01719125870304625</v>
       </c>
       <c r="D19">
-        <v>-0.1025895707696697</v>
+        <v>-0.06357915319647173</v>
       </c>
       <c r="E19">
-        <v>0.04212414767599051</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.01049182526914736</v>
+      </c>
+      <c r="F19">
+        <v>-0.01534517344402877</v>
+      </c>
+      <c r="G19">
+        <v>-0.02216595291191148</v>
+      </c>
+      <c r="H19">
+        <v>-0.05730414870672355</v>
+      </c>
+      <c r="I19">
+        <v>-0.03256575824865255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002054993371267585</v>
+        <v>-0.005532557009167371</v>
       </c>
       <c r="C20">
-        <v>0.02350434872340867</v>
+        <v>-0.03872119804526472</v>
       </c>
       <c r="D20">
-        <v>-0.08601755790914743</v>
+        <v>-0.0922872238097696</v>
       </c>
       <c r="E20">
-        <v>0.03429288701098871</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02314526810229021</v>
+      </c>
+      <c r="F20">
+        <v>-0.02973618935965147</v>
+      </c>
+      <c r="G20">
+        <v>-0.004534590065072124</v>
+      </c>
+      <c r="H20">
+        <v>-0.05793879163953151</v>
+      </c>
+      <c r="I20">
+        <v>0.04926941245985813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.005868186125104329</v>
+        <v>-0.005354049523327805</v>
       </c>
       <c r="C21">
-        <v>0.02823874941472757</v>
+        <v>-0.04438645970264959</v>
       </c>
       <c r="D21">
-        <v>-0.1612595215573569</v>
+        <v>-0.1303605008196533</v>
       </c>
       <c r="E21">
-        <v>0.07283921587517313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03052564137834493</v>
+      </c>
+      <c r="F21">
+        <v>-0.0962735776021469</v>
+      </c>
+      <c r="G21">
+        <v>-0.05451807516839723</v>
+      </c>
+      <c r="H21">
+        <v>-0.1883022030716237</v>
+      </c>
+      <c r="I21">
+        <v>-0.1343316807138923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.002740201953472304</v>
+        <v>0.007224303177451507</v>
       </c>
       <c r="C22">
-        <v>0.06308683404077549</v>
+        <v>-0.0868426136964621</v>
       </c>
       <c r="D22">
-        <v>-0.2463000885230402</v>
+        <v>-0.2637638415092354</v>
       </c>
       <c r="E22">
-        <v>-0.0212865153455974</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.05817804121276553</v>
+      </c>
+      <c r="F22">
+        <v>-0.02262156221237565</v>
+      </c>
+      <c r="G22">
+        <v>-0.2778261870530599</v>
+      </c>
+      <c r="H22">
+        <v>0.4517465688804481</v>
+      </c>
+      <c r="I22">
+        <v>0.07800069341284546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.002471728203730382</v>
+        <v>0.006799864887274685</v>
       </c>
       <c r="C23">
-        <v>0.0635907491176616</v>
+        <v>-0.08798936404018128</v>
       </c>
       <c r="D23">
-        <v>-0.2458206171110899</v>
+        <v>-0.2646934287194475</v>
       </c>
       <c r="E23">
-        <v>-0.02114688806172474</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.05516370968407132</v>
+      </c>
+      <c r="F23">
+        <v>-0.02292342715705433</v>
+      </c>
+      <c r="G23">
+        <v>-0.2778973449938959</v>
+      </c>
+      <c r="H23">
+        <v>0.4512043561090978</v>
+      </c>
+      <c r="I23">
+        <v>0.07730113892178983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02367539864947636</v>
+        <v>-0.01018820374005507</v>
       </c>
       <c r="C24">
-        <v>0.05566093053342831</v>
+        <v>-0.06511446919552102</v>
       </c>
       <c r="D24">
-        <v>-0.06738011978363442</v>
+        <v>-0.05096764625383399</v>
       </c>
       <c r="E24">
-        <v>-0.003392866117227508</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02929932952148673</v>
+      </c>
+      <c r="F24">
+        <v>0.003846804183660213</v>
+      </c>
+      <c r="G24">
+        <v>-0.004359699470308689</v>
+      </c>
+      <c r="H24">
+        <v>-0.07514101613331871</v>
+      </c>
+      <c r="I24">
+        <v>0.04132041833616952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02558744169510819</v>
+        <v>-0.01444977359052551</v>
       </c>
       <c r="C25">
-        <v>0.04725191448685607</v>
+        <v>-0.05976875273846653</v>
       </c>
       <c r="D25">
-        <v>-0.05901612391617229</v>
+        <v>-0.04878754609746071</v>
       </c>
       <c r="E25">
-        <v>0.000348461190622779</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01418955182309709</v>
+      </c>
+      <c r="F25">
+        <v>0.005596109869999832</v>
+      </c>
+      <c r="G25">
+        <v>0.004203992946799008</v>
+      </c>
+      <c r="H25">
+        <v>-0.04229958108042068</v>
+      </c>
+      <c r="I25">
+        <v>0.03739850238521372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.00701527222318343</v>
+        <v>-0.01420441764198258</v>
       </c>
       <c r="C26">
-        <v>0.01580477820338791</v>
+        <v>-0.02631484888393414</v>
       </c>
       <c r="D26">
-        <v>-0.08131324009843362</v>
+        <v>-0.0664392394645642</v>
       </c>
       <c r="E26">
-        <v>0.01824835079099273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04172952803402522</v>
+      </c>
+      <c r="F26">
+        <v>-0.04249986252540552</v>
+      </c>
+      <c r="G26">
+        <v>-0.01963801954542527</v>
+      </c>
+      <c r="H26">
+        <v>-0.0935376566561725</v>
+      </c>
+      <c r="I26">
+        <v>-0.0160622545594209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2550354893478458</v>
+        <v>-0.3184641018513381</v>
       </c>
       <c r="C28">
-        <v>-0.2018820679224442</v>
+        <v>0.09485758337089306</v>
       </c>
       <c r="D28">
-        <v>-0.0199905880462434</v>
+        <v>0.01173938951136214</v>
       </c>
       <c r="E28">
-        <v>0.06196830217693415</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05044612933599213</v>
+      </c>
+      <c r="F28">
+        <v>-0.04828963448551005</v>
+      </c>
+      <c r="G28">
+        <v>-0.03569878890086657</v>
+      </c>
+      <c r="H28">
+        <v>0.01508253588416312</v>
+      </c>
+      <c r="I28">
+        <v>-0.03281441437619101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.002069937941382296</v>
+        <v>-0.0005438425751996042</v>
       </c>
       <c r="C29">
-        <v>0.02100812730981561</v>
+        <v>-0.03450934281033862</v>
       </c>
       <c r="D29">
-        <v>-0.09647487705030229</v>
+        <v>-0.1026250925585877</v>
       </c>
       <c r="E29">
-        <v>0.01516649197671296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.05588622227673007</v>
+      </c>
+      <c r="F29">
+        <v>-0.03827484224711213</v>
+      </c>
+      <c r="G29">
+        <v>-0.02230444335916435</v>
+      </c>
+      <c r="H29">
+        <v>-0.1309980078840416</v>
+      </c>
+      <c r="I29">
+        <v>0.0136731398608005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02145414919256295</v>
+        <v>-0.01418804023820242</v>
       </c>
       <c r="C30">
-        <v>0.05824801310839026</v>
+        <v>-0.08590735996271105</v>
       </c>
       <c r="D30">
-        <v>-0.1669999394139007</v>
+        <v>-0.1521136454669415</v>
       </c>
       <c r="E30">
-        <v>0.02425829325331088</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05467385319860716</v>
+      </c>
+      <c r="F30">
+        <v>-0.03496531618951839</v>
+      </c>
+      <c r="G30">
+        <v>-0.03584347774829072</v>
+      </c>
+      <c r="H30">
+        <v>-0.05222551052698276</v>
+      </c>
+      <c r="I30">
+        <v>0.05252762115190874</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03788148183047762</v>
+        <v>-0.009849449611479252</v>
       </c>
       <c r="C31">
-        <v>0.08421208658329923</v>
+        <v>-0.09263605185570742</v>
       </c>
       <c r="D31">
-        <v>-0.06960794192650216</v>
+        <v>-0.04239679190606337</v>
       </c>
       <c r="E31">
-        <v>0.01315793533356231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01969086822201584</v>
+      </c>
+      <c r="F31">
+        <v>-0.01532916902754023</v>
+      </c>
+      <c r="G31">
+        <v>-0.009660668300199796</v>
+      </c>
+      <c r="H31">
+        <v>-0.0440265620457393</v>
+      </c>
+      <c r="I31">
+        <v>-0.003851319393074004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01759083633603006</v>
+        <v>-0.009912756633778002</v>
       </c>
       <c r="C32">
-        <v>0.03227800260984908</v>
+        <v>-0.04715993019359194</v>
       </c>
       <c r="D32">
-        <v>-0.103410531224289</v>
+        <v>-0.1086801005546428</v>
       </c>
       <c r="E32">
-        <v>0.06496887726276702</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.003806299052332479</v>
+      </c>
+      <c r="F32">
+        <v>-0.05021347137081957</v>
+      </c>
+      <c r="G32">
+        <v>-0.02244928503285235</v>
+      </c>
+      <c r="H32">
+        <v>-0.04023443819671973</v>
+      </c>
+      <c r="I32">
+        <v>-0.06960941605770535</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.008584668048577571</v>
+        <v>-0.006855884449284455</v>
       </c>
       <c r="C33">
-        <v>0.04018879541136384</v>
+        <v>-0.057654114622938</v>
       </c>
       <c r="D33">
-        <v>-0.1395019043959753</v>
+        <v>-0.1224791106651024</v>
       </c>
       <c r="E33">
-        <v>0.03945694539350032</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02752748653301274</v>
+      </c>
+      <c r="F33">
+        <v>-0.02890718034633075</v>
+      </c>
+      <c r="G33">
+        <v>-0.01244379492185516</v>
+      </c>
+      <c r="H33">
+        <v>-0.06391019796324149</v>
+      </c>
+      <c r="I33">
+        <v>0.01302815149750651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02187083164608077</v>
+        <v>-0.007964153868008288</v>
       </c>
       <c r="C34">
-        <v>0.05842464264185636</v>
+        <v>-0.0616330317767915</v>
       </c>
       <c r="D34">
-        <v>-0.05014128893839846</v>
+        <v>-0.02960803312231415</v>
       </c>
       <c r="E34">
-        <v>-0.045994852086386</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0294998205877577</v>
+      </c>
+      <c r="F34">
+        <v>0.03797436353138593</v>
+      </c>
+      <c r="G34">
+        <v>-0.001451434065048692</v>
+      </c>
+      <c r="H34">
+        <v>-0.05987701828695917</v>
+      </c>
+      <c r="I34">
+        <v>0.02272899396523037</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.001366902129066556</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.009840513243777667</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03192915187566879</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.003675407929711176</v>
+      </c>
+      <c r="F35">
+        <v>-0.01687266264213199</v>
+      </c>
+      <c r="G35">
+        <v>-0.01126622229999557</v>
+      </c>
+      <c r="H35">
+        <v>-0.04026607015441311</v>
+      </c>
+      <c r="I35">
+        <v>0.03588513828663491</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.00612465793997308</v>
+        <v>-0.01210386251181904</v>
       </c>
       <c r="C36">
-        <v>0.005905759550682766</v>
+        <v>-0.01915080223332306</v>
       </c>
       <c r="D36">
-        <v>-0.0860495357808044</v>
+        <v>-0.07331910675776147</v>
       </c>
       <c r="E36">
-        <v>0.04305770532639031</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.02608842672860913</v>
+      </c>
+      <c r="F36">
+        <v>-0.04852824499026363</v>
+      </c>
+      <c r="G36">
+        <v>-0.01562157797582408</v>
+      </c>
+      <c r="H36">
+        <v>-0.06215428626646782</v>
+      </c>
+      <c r="I36">
+        <v>-0.004011080365810642</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.004318705741798879</v>
+        <v>-0.0141014948429738</v>
       </c>
       <c r="C38">
-        <v>0.006755035232395728</v>
+        <v>-0.01841729932667767</v>
       </c>
       <c r="D38">
-        <v>-0.08788797102348424</v>
+        <v>-0.08428231487268652</v>
       </c>
       <c r="E38">
-        <v>0.01040611162633402</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002772256624107324</v>
+      </c>
+      <c r="F38">
+        <v>-0.001871386939717241</v>
+      </c>
+      <c r="G38">
+        <v>-0.03479652263109875</v>
+      </c>
+      <c r="H38">
+        <v>-0.0609544295455693</v>
+      </c>
+      <c r="I38">
+        <v>0.01937109809052712</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01538760561063811</v>
+        <v>-0.003522326356211888</v>
       </c>
       <c r="C39">
-        <v>0.05656904456321932</v>
+        <v>-0.07475627127624349</v>
       </c>
       <c r="D39">
-        <v>-0.1134741273284358</v>
+        <v>-0.09584367091498947</v>
       </c>
       <c r="E39">
-        <v>-0.01557047959197391</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05387653087034661</v>
+      </c>
+      <c r="F39">
+        <v>0.003550358229101741</v>
+      </c>
+      <c r="G39">
+        <v>-0.007853320308428566</v>
+      </c>
+      <c r="H39">
+        <v>-0.1038567422525082</v>
+      </c>
+      <c r="I39">
+        <v>0.04069400304936564</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01029693868828999</v>
+        <v>-0.01270637748806431</v>
       </c>
       <c r="C40">
-        <v>0.01698580422459972</v>
+        <v>-0.02978932858473343</v>
       </c>
       <c r="D40">
-        <v>-0.1222632571501536</v>
+        <v>-0.1010183429646598</v>
       </c>
       <c r="E40">
-        <v>-0.01852327602393037</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0496097695833233</v>
+      </c>
+      <c r="F40">
+        <v>0.02146169042238152</v>
+      </c>
+      <c r="G40">
+        <v>-0.06579752924373258</v>
+      </c>
+      <c r="H40">
+        <v>-0.06898266540409473</v>
+      </c>
+      <c r="I40">
+        <v>-0.08602936635551517</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009986093817023034</v>
+        <v>-0.0165698600167618</v>
       </c>
       <c r="C41">
-        <v>0.003326117099527361</v>
+        <v>-0.01556804783951827</v>
       </c>
       <c r="D41">
-        <v>-0.04723668905239512</v>
+        <v>-0.04523124806903398</v>
       </c>
       <c r="E41">
-        <v>0.0322365906866035</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.00826711349754088</v>
+      </c>
+      <c r="F41">
+        <v>-0.02374842043919698</v>
+      </c>
+      <c r="G41">
+        <v>-0.01690089878309969</v>
+      </c>
+      <c r="H41">
+        <v>-0.03929210082115114</v>
+      </c>
+      <c r="I41">
+        <v>0.01722518191411759</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.002883790719424147</v>
+        <v>-0.01030968467349715</v>
       </c>
       <c r="C43">
-        <v>0.003728063150788032</v>
+        <v>-0.01256126028770304</v>
       </c>
       <c r="D43">
-        <v>-0.05636905558953993</v>
+        <v>-0.05055907529837498</v>
       </c>
       <c r="E43">
-        <v>0.02210806253991899</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.007821860108994704</v>
+      </c>
+      <c r="F43">
+        <v>-0.02025221448775655</v>
+      </c>
+      <c r="G43">
+        <v>-0.0195187289708541</v>
+      </c>
+      <c r="H43">
+        <v>-0.05453425283601241</v>
+      </c>
+      <c r="I43">
+        <v>0.03189300326553761</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01633453014926834</v>
+        <v>-0.01187015693613555</v>
       </c>
       <c r="C44">
-        <v>0.02233867796206161</v>
+        <v>-0.04524600274230663</v>
       </c>
       <c r="D44">
-        <v>-0.1084707374645668</v>
+        <v>-0.1093247429420853</v>
       </c>
       <c r="E44">
-        <v>0.0479211101353554</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.03890103925710806</v>
+      </c>
+      <c r="F44">
+        <v>-0.03695898512544367</v>
+      </c>
+      <c r="G44">
+        <v>-0.03658496136895074</v>
+      </c>
+      <c r="H44">
+        <v>-0.04812808027396193</v>
+      </c>
+      <c r="I44">
+        <v>0.04193588838116172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.005500935417726394</v>
+        <v>0.0001683252666920086</v>
       </c>
       <c r="C46">
-        <v>0.02858672201257922</v>
+        <v>-0.04016813368664494</v>
       </c>
       <c r="D46">
-        <v>-0.09050470851120661</v>
+        <v>-0.07522290853519216</v>
       </c>
       <c r="E46">
-        <v>0.01733552802041104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.04241833469379213</v>
+      </c>
+      <c r="F46">
+        <v>-0.03358326883475207</v>
+      </c>
+      <c r="G46">
+        <v>-0.03565234859103643</v>
+      </c>
+      <c r="H46">
+        <v>-0.1321556398407402</v>
+      </c>
+      <c r="I46">
+        <v>0.03726740771111953</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08070257315457684</v>
+        <v>-0.03586133208232632</v>
       </c>
       <c r="C47">
-        <v>0.1069279900340524</v>
+        <v>-0.1258608837406939</v>
       </c>
       <c r="D47">
-        <v>-0.05812102948631601</v>
+        <v>-0.02386359162432747</v>
       </c>
       <c r="E47">
-        <v>0.0289001318582695</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.007779575182817792</v>
+      </c>
+      <c r="F47">
+        <v>0.004725269448747753</v>
+      </c>
+      <c r="G47">
+        <v>0.03075350866367544</v>
+      </c>
+      <c r="H47">
+        <v>-0.05890550582373116</v>
+      </c>
+      <c r="I47">
+        <v>-0.03512449503686689</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.007170721760732292</v>
+        <v>-0.01312400023687835</v>
       </c>
       <c r="C48">
-        <v>0.0152089311540262</v>
+        <v>-0.02955659077207933</v>
       </c>
       <c r="D48">
-        <v>-0.09000290177612667</v>
+        <v>-0.07951734610144881</v>
       </c>
       <c r="E48">
-        <v>0.05557929648402546</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.01911073840002704</v>
+      </c>
+      <c r="F48">
+        <v>-0.05923871010952538</v>
+      </c>
+      <c r="G48">
+        <v>-0.02884734037275644</v>
+      </c>
+      <c r="H48">
+        <v>-0.1014549340383501</v>
+      </c>
+      <c r="I48">
+        <v>0.009919739866698278</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03589613394349896</v>
+        <v>-0.01545958874084539</v>
       </c>
       <c r="C50">
-        <v>0.05957252310317328</v>
+        <v>-0.07488296338235019</v>
       </c>
       <c r="D50">
-        <v>-0.06403246967658126</v>
+        <v>-0.04896013818421585</v>
       </c>
       <c r="E50">
-        <v>0.008871392644815174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01188463984510676</v>
+      </c>
+      <c r="F50">
+        <v>-0.01077988830961171</v>
+      </c>
+      <c r="G50">
+        <v>-0.02276490263985988</v>
+      </c>
+      <c r="H50">
+        <v>-0.03038922361905105</v>
+      </c>
+      <c r="I50">
+        <v>-0.005103017938032113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.001990970521170034</v>
+        <v>0.0007257269304036118</v>
       </c>
       <c r="C51">
-        <v>0.00417480347765263</v>
+        <v>-0.01554780662557965</v>
       </c>
       <c r="D51">
-        <v>-0.06036508597260794</v>
+        <v>-0.05696951731020188</v>
       </c>
       <c r="E51">
-        <v>0.0007322910795531635</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03968170983942006</v>
+      </c>
+      <c r="F51">
+        <v>-0.03869340069333921</v>
+      </c>
+      <c r="G51">
+        <v>-0.03427032071585926</v>
+      </c>
+      <c r="H51">
+        <v>-0.0350263215377686</v>
+      </c>
+      <c r="I51">
+        <v>-0.01667677533189348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1083918908335977</v>
+        <v>-0.05592967589908386</v>
       </c>
       <c r="C53">
-        <v>0.1231570520261838</v>
+        <v>-0.1555210261858647</v>
       </c>
       <c r="D53">
-        <v>-0.01278302693552716</v>
+        <v>0.01879827318583245</v>
       </c>
       <c r="E53">
-        <v>0.06214720947086763</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02894659357912603</v>
+      </c>
+      <c r="F53">
+        <v>-0.05076183132865571</v>
+      </c>
+      <c r="G53">
+        <v>-0.005060594021839765</v>
+      </c>
+      <c r="H53">
+        <v>-0.0008709059058508541</v>
+      </c>
+      <c r="I53">
+        <v>0.00193905238994879</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01126435774483808</v>
+        <v>-0.009581069934949532</v>
       </c>
       <c r="C54">
-        <v>0.02004658477958277</v>
+        <v>-0.03677819404300853</v>
       </c>
       <c r="D54">
-        <v>-0.09216222539666684</v>
+        <v>-0.07784947884856024</v>
       </c>
       <c r="E54">
-        <v>0.004581094801210216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01499166708714999</v>
+      </c>
+      <c r="F54">
+        <v>-0.004434286471307403</v>
+      </c>
+      <c r="G54">
+        <v>-0.04007421580401185</v>
+      </c>
+      <c r="H54">
+        <v>-0.07560924844366179</v>
+      </c>
+      <c r="I54">
+        <v>0.04558955117217017</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09577243460368896</v>
+        <v>-0.04307298107924459</v>
       </c>
       <c r="C55">
-        <v>0.1047832445706483</v>
+        <v>-0.1296483426873181</v>
       </c>
       <c r="D55">
-        <v>-0.007145737328078215</v>
+        <v>0.03089829715870668</v>
       </c>
       <c r="E55">
-        <v>0.01288166630214112</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.004160280861618733</v>
+      </c>
+      <c r="F55">
+        <v>-0.01496767506465633</v>
+      </c>
+      <c r="G55">
+        <v>-0.01349996629349559</v>
+      </c>
+      <c r="H55">
+        <v>-0.006245522400862505</v>
+      </c>
+      <c r="I55">
+        <v>-0.02260766399704585</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1331731675782979</v>
+        <v>-0.05804788587981501</v>
       </c>
       <c r="C56">
-        <v>0.1411899271905641</v>
+        <v>-0.187526363345194</v>
       </c>
       <c r="D56">
-        <v>-0.001410612021250547</v>
+        <v>0.03131945555516351</v>
       </c>
       <c r="E56">
-        <v>0.01300576422486426</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03096161502676625</v>
+      </c>
+      <c r="F56">
+        <v>-0.0185269777997744</v>
+      </c>
+      <c r="G56">
+        <v>-0.05931851865923696</v>
+      </c>
+      <c r="H56">
+        <v>0.009743046385245199</v>
+      </c>
+      <c r="I56">
+        <v>-0.02472545039776769</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.009815648896385049</v>
+        <v>-0.006414443102633781</v>
       </c>
       <c r="C58">
-        <v>0.01132762415214424</v>
+        <v>-0.05168110275594371</v>
       </c>
       <c r="D58">
-        <v>-0.2165223640856948</v>
+        <v>-0.2737494147400701</v>
       </c>
       <c r="E58">
-        <v>0.08137399168630322</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.01457831014927571</v>
+      </c>
+      <c r="F58">
+        <v>-0.1113755294741703</v>
+      </c>
+      <c r="G58">
+        <v>-0.1120989336183124</v>
+      </c>
+      <c r="H58">
+        <v>0.1192168553665806</v>
+      </c>
+      <c r="I58">
+        <v>0.06215039446710019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1788157583309905</v>
+        <v>-0.2524908074893126</v>
       </c>
       <c r="C59">
-        <v>-0.1492526585011575</v>
+        <v>0.06635972900819251</v>
       </c>
       <c r="D59">
-        <v>-0.04482023670324586</v>
+        <v>-0.05567116722987251</v>
       </c>
       <c r="E59">
-        <v>0.0358797673651083</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02138170173105785</v>
+      </c>
+      <c r="F59">
+        <v>-0.02498722407043753</v>
+      </c>
+      <c r="G59">
+        <v>-0.00968024753858299</v>
+      </c>
+      <c r="H59">
+        <v>0.006017957829267711</v>
+      </c>
+      <c r="I59">
+        <v>-0.07492199536715706</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1876077548938683</v>
+        <v>-0.1515967700535791</v>
       </c>
       <c r="C60">
-        <v>0.1003996312673322</v>
+        <v>-0.1712856751474267</v>
       </c>
       <c r="D60">
-        <v>-0.2054933743575952</v>
+        <v>-0.09027831751933216</v>
       </c>
       <c r="E60">
-        <v>-0.1696275749965856</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1682289878290867</v>
+      </c>
+      <c r="F60">
+        <v>0.2296068535760241</v>
+      </c>
+      <c r="G60">
+        <v>0.266436650388907</v>
+      </c>
+      <c r="H60">
+        <v>0.1710138696014142</v>
+      </c>
+      <c r="I60">
+        <v>-0.09877308792099125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02539654928411337</v>
+        <v>-0.01115207088471286</v>
       </c>
       <c r="C61">
-        <v>0.05325692324076145</v>
+        <v>-0.07273911939898839</v>
       </c>
       <c r="D61">
-        <v>-0.09953361910951712</v>
+        <v>-0.07746455069764298</v>
       </c>
       <c r="E61">
-        <v>-0.007071994306596506</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03676114443569992</v>
+      </c>
+      <c r="F61">
+        <v>0.01453546802902757</v>
+      </c>
+      <c r="G61">
+        <v>0.009304940493813465</v>
+      </c>
+      <c r="H61">
+        <v>-0.0930870899934967</v>
+      </c>
+      <c r="I61">
+        <v>0.02227337109992072</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.006919660384858481</v>
+        <v>-0.008643557219616018</v>
       </c>
       <c r="C63">
-        <v>0.02479863637383892</v>
+        <v>-0.03497599402923617</v>
       </c>
       <c r="D63">
-        <v>-0.09459172185986532</v>
+        <v>-0.06769343009476063</v>
       </c>
       <c r="E63">
-        <v>0.01427892368707418</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05591038807522786</v>
+      </c>
+      <c r="F63">
+        <v>-0.02810405782445964</v>
+      </c>
+      <c r="G63">
+        <v>-0.01949512346355593</v>
+      </c>
+      <c r="H63">
+        <v>-0.06695892785923145</v>
+      </c>
+      <c r="I63">
+        <v>0.03213761017078458</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05624024809853384</v>
+        <v>-0.02000801874211932</v>
       </c>
       <c r="C64">
-        <v>0.08294334248867796</v>
+        <v>-0.1047741881305651</v>
       </c>
       <c r="D64">
-        <v>-0.03731839974532113</v>
+        <v>-0.01950295171849405</v>
       </c>
       <c r="E64">
-        <v>0.01393923005949866</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02861203768896521</v>
+      </c>
+      <c r="F64">
+        <v>-0.01821107671818023</v>
+      </c>
+      <c r="G64">
+        <v>0.03558928967278074</v>
+      </c>
+      <c r="H64">
+        <v>-0.1091132959870834</v>
+      </c>
+      <c r="I64">
+        <v>0.04130007641885303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.0248810783241839</v>
+        <v>-0.02115219569923418</v>
       </c>
       <c r="C65">
-        <v>0.01514509125614232</v>
+        <v>-0.04222790695329501</v>
       </c>
       <c r="D65">
-        <v>-0.1178481255483591</v>
+        <v>-0.1157448366950408</v>
       </c>
       <c r="E65">
-        <v>0.00536660381920183</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04278168489192796</v>
+      </c>
+      <c r="F65">
+        <v>0.006441353389578401</v>
+      </c>
+      <c r="G65">
+        <v>0.02177036033016112</v>
+      </c>
+      <c r="H65">
+        <v>-0.03304428144052871</v>
+      </c>
+      <c r="I65">
+        <v>0.06686295869108697</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.01875748202294259</v>
+        <v>-0.001168066383337958</v>
       </c>
       <c r="C66">
-        <v>0.06428203449790443</v>
+        <v>-0.09240683469813973</v>
       </c>
       <c r="D66">
-        <v>-0.1197041984485313</v>
+        <v>-0.1209013356928998</v>
       </c>
       <c r="E66">
-        <v>-0.01853264126007519</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.04126971548584032</v>
+      </c>
+      <c r="F66">
+        <v>0.009007139926945379</v>
+      </c>
+      <c r="G66">
+        <v>-0.02195249189147363</v>
+      </c>
+      <c r="H66">
+        <v>-0.06158663289551743</v>
+      </c>
+      <c r="I66">
+        <v>0.0322970311403776</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02398459904807665</v>
+        <v>-0.02476248067424358</v>
       </c>
       <c r="C67">
-        <v>0.01981584173311029</v>
+        <v>-0.03078319359164828</v>
       </c>
       <c r="D67">
-        <v>-0.04368973877293598</v>
+        <v>-0.03774168675040534</v>
       </c>
       <c r="E67">
-        <v>-0.01578272160915378</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.008803565686619497</v>
+      </c>
+      <c r="F67">
+        <v>0.02799364617947969</v>
+      </c>
+      <c r="G67">
+        <v>-0.01830255501114432</v>
+      </c>
+      <c r="H67">
+        <v>-0.06589722429758771</v>
+      </c>
+      <c r="I67">
+        <v>0.02039174961396515</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.203031425980164</v>
+        <v>-0.2727895664909913</v>
       </c>
       <c r="C68">
-        <v>-0.158629147691783</v>
+        <v>0.07125418925528217</v>
       </c>
       <c r="D68">
-        <v>-0.03277363714949664</v>
+        <v>-0.02532934259706717</v>
       </c>
       <c r="E68">
-        <v>0.008281425792749693</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.00554479219801432</v>
+      </c>
+      <c r="F68">
+        <v>-0.02714250403480809</v>
+      </c>
+      <c r="G68">
+        <v>-0.06014644385017</v>
+      </c>
+      <c r="H68">
+        <v>0.06984365070372425</v>
+      </c>
+      <c r="I68">
+        <v>-0.03747761218753894</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05691690428587688</v>
+        <v>-0.02069004673142784</v>
       </c>
       <c r="C69">
-        <v>0.1140943281059424</v>
+        <v>-0.1169674103435807</v>
       </c>
       <c r="D69">
-        <v>-0.0814938831045337</v>
+        <v>-0.03304792689821973</v>
       </c>
       <c r="E69">
-        <v>0.01739948144624607</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.007702575012047062</v>
+      </c>
+      <c r="F69">
+        <v>0.006632675619464718</v>
+      </c>
+      <c r="G69">
+        <v>0.01488645687509757</v>
+      </c>
+      <c r="H69">
+        <v>-0.04475446056867192</v>
+      </c>
+      <c r="I69">
+        <v>-0.01566336152391066</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2126151252243826</v>
+        <v>-0.2744705909155307</v>
       </c>
       <c r="C71">
-        <v>-0.1819956020471119</v>
+        <v>0.08413784814940617</v>
       </c>
       <c r="D71">
-        <v>-0.02132792301467203</v>
+        <v>-0.01627047332462743</v>
       </c>
       <c r="E71">
-        <v>0.0141741529943547</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.001678126932644641</v>
+      </c>
+      <c r="F71">
+        <v>-0.02100479251312067</v>
+      </c>
+      <c r="G71">
+        <v>-0.03787016671312467</v>
+      </c>
+      <c r="H71">
+        <v>-0.01139920341940002</v>
+      </c>
+      <c r="I71">
+        <v>-0.03967735591384335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1061418483214997</v>
+        <v>-0.05636727430708958</v>
       </c>
       <c r="C72">
-        <v>0.07401928311076597</v>
+        <v>-0.1245049351557132</v>
       </c>
       <c r="D72">
-        <v>-0.1071809143899591</v>
+        <v>-0.05514059949477185</v>
       </c>
       <c r="E72">
-        <v>-0.04923100140221086</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07094084047198813</v>
+      </c>
+      <c r="F72">
+        <v>0.03083582155862195</v>
+      </c>
+      <c r="G72">
+        <v>0.02260097829657585</v>
+      </c>
+      <c r="H72">
+        <v>-0.05717965396606031</v>
+      </c>
+      <c r="I72">
+        <v>0.05973245281973596</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1743771940274709</v>
+        <v>-0.1423063611579868</v>
       </c>
       <c r="C73">
-        <v>0.06419160294062705</v>
+        <v>-0.1444402078656677</v>
       </c>
       <c r="D73">
-        <v>-0.2691166490532939</v>
+        <v>-0.09862490096533517</v>
       </c>
       <c r="E73">
-        <v>-0.2561609151267693</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2963117643466517</v>
+      </c>
+      <c r="F73">
+        <v>0.3267750729628753</v>
+      </c>
+      <c r="G73">
+        <v>0.4247777318859335</v>
+      </c>
+      <c r="H73">
+        <v>0.07033685109783334</v>
+      </c>
+      <c r="I73">
+        <v>-0.03583224728871366</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1084831110581027</v>
+        <v>-0.05060604383203514</v>
       </c>
       <c r="C74">
-        <v>0.114082004288037</v>
+        <v>-0.145523382532979</v>
       </c>
       <c r="D74">
-        <v>0.01596500283533264</v>
+        <v>0.04031473343777191</v>
       </c>
       <c r="E74">
-        <v>0.04217218441282714</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01029601552905124</v>
+      </c>
+      <c r="F74">
+        <v>-0.03710232113163262</v>
+      </c>
+      <c r="G74">
+        <v>0.005081940152168791</v>
+      </c>
+      <c r="H74">
+        <v>0.01961140334459766</v>
+      </c>
+      <c r="I74">
+        <v>-0.03650093043529744</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2347238756276303</v>
+        <v>-0.1109339010327562</v>
       </c>
       <c r="C75">
-        <v>0.1982298790256053</v>
+        <v>-0.2684918377904681</v>
       </c>
       <c r="D75">
-        <v>0.1039759616969373</v>
+        <v>0.136534735658404</v>
       </c>
       <c r="E75">
-        <v>-0.02498050495744948</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08865230660527282</v>
+      </c>
+      <c r="F75">
+        <v>0.02897069458331001</v>
+      </c>
+      <c r="G75">
+        <v>-0.09832325123073635</v>
+      </c>
+      <c r="H75">
+        <v>0.01325923529000867</v>
+      </c>
+      <c r="I75">
+        <v>-0.01233361284795001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.140294388302501</v>
+        <v>-0.06334288225539361</v>
       </c>
       <c r="C76">
-        <v>0.1379056904967599</v>
+        <v>-0.1816489807645941</v>
       </c>
       <c r="D76">
-        <v>-0.01647790497481214</v>
+        <v>0.03659615862352034</v>
       </c>
       <c r="E76">
-        <v>0.01181047456993763</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02200968173775876</v>
+      </c>
+      <c r="F76">
+        <v>-0.004669515331639044</v>
+      </c>
+      <c r="G76">
+        <v>-0.04394322233643224</v>
+      </c>
+      <c r="H76">
+        <v>-0.02079076028164744</v>
+      </c>
+      <c r="I76">
+        <v>-0.00905278480118683</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02087904779314271</v>
+        <v>-0.001367583044287013</v>
       </c>
       <c r="C77">
-        <v>0.06753958652877842</v>
+        <v>-0.106898938272452</v>
       </c>
       <c r="D77">
-        <v>-0.0054058186348056</v>
+        <v>-0.3158388377363782</v>
       </c>
       <c r="E77">
-        <v>0.231360337042635</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.839212595083123</v>
+      </c>
+      <c r="F77">
+        <v>0.235118887630497</v>
+      </c>
+      <c r="G77">
+        <v>0.2313701499302727</v>
+      </c>
+      <c r="H77">
+        <v>0.1037362622704922</v>
+      </c>
+      <c r="I77">
+        <v>0.001864913434151988</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02549792201528474</v>
+        <v>-0.01665701598174377</v>
       </c>
       <c r="C78">
-        <v>0.06807867111499155</v>
+        <v>-0.08890165322536854</v>
       </c>
       <c r="D78">
-        <v>-0.1546682758237657</v>
+        <v>-0.1220159354860948</v>
       </c>
       <c r="E78">
-        <v>0.04510627042652671</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06887089085706496</v>
+      </c>
+      <c r="F78">
+        <v>-0.04556488686188018</v>
+      </c>
+      <c r="G78">
+        <v>-0.03630134164193643</v>
+      </c>
+      <c r="H78">
+        <v>-0.01511806911224355</v>
+      </c>
+      <c r="I78">
+        <v>-0.1236483210938946</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09627123904159192</v>
+        <v>-0.03597017651706892</v>
       </c>
       <c r="C79">
-        <v>0.1745341686158816</v>
+        <v>-0.1913972308867384</v>
       </c>
       <c r="D79">
-        <v>0.09171294747696405</v>
+        <v>0.07133502998150898</v>
       </c>
       <c r="E79">
-        <v>0.7964674763451107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05286521442885389</v>
+      </c>
+      <c r="F79">
+        <v>-0.7658108066888958</v>
+      </c>
+      <c r="G79">
+        <v>0.4812251519554549</v>
+      </c>
+      <c r="H79">
+        <v>0.1984781705180894</v>
+      </c>
+      <c r="I79">
+        <v>0.04704525049077013</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.004764941722750947</v>
+        <v>-0.005602261038103173</v>
       </c>
       <c r="C80">
-        <v>0.04630880381321158</v>
+        <v>-0.04566287784230724</v>
       </c>
       <c r="D80">
-        <v>-0.05251039085489365</v>
+        <v>-0.04180707545447473</v>
       </c>
       <c r="E80">
-        <v>-0.007983158591948144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04351993966975543</v>
+      </c>
+      <c r="F80">
+        <v>-0.006503537653484708</v>
+      </c>
+      <c r="G80">
+        <v>-0.02355726951843761</v>
+      </c>
+      <c r="H80">
+        <v>-0.01943728114681194</v>
+      </c>
+      <c r="I80">
+        <v>-0.07056268343014625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1197469341259951</v>
+        <v>-0.04481339295863569</v>
       </c>
       <c r="C81">
-        <v>0.1341842426953732</v>
+        <v>-0.1673046670084368</v>
       </c>
       <c r="D81">
-        <v>0.07104674591626624</v>
+        <v>0.07998198844975184</v>
       </c>
       <c r="E81">
-        <v>0.06199870237410083</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05119271624590587</v>
+      </c>
+      <c r="F81">
+        <v>-0.06234301735350731</v>
+      </c>
+      <c r="G81">
+        <v>-0.05922351090418826</v>
+      </c>
+      <c r="H81">
+        <v>-0.05945579552221476</v>
+      </c>
+      <c r="I81">
+        <v>-0.03090880794711207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2538109055093467</v>
+        <v>-0.09393222322884595</v>
       </c>
       <c r="C82">
-        <v>0.297397630028312</v>
+        <v>-0.3248213326932485</v>
       </c>
       <c r="D82">
-        <v>0.2004628164476686</v>
+        <v>0.2351195487049516</v>
       </c>
       <c r="E82">
-        <v>-0.1365441028350942</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.05583539608382466</v>
+      </c>
+      <c r="F82">
+        <v>0.1028194941154116</v>
+      </c>
+      <c r="G82">
+        <v>-0.1189912611056838</v>
+      </c>
+      <c r="H82">
+        <v>-0.08927284710142916</v>
+      </c>
+      <c r="I82">
+        <v>-0.0283642083764589</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.00732750932026655</v>
+        <v>0.01623667979552698</v>
       </c>
       <c r="C83">
-        <v>0.05163314583649362</v>
+        <v>-0.02593046396815723</v>
       </c>
       <c r="D83">
-        <v>-0.01170030998783291</v>
+        <v>-0.02637159107250909</v>
       </c>
       <c r="E83">
-        <v>0.05733340268715545</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.07435692390309807</v>
+      </c>
+      <c r="F83">
+        <v>-0.06752164504836126</v>
+      </c>
+      <c r="G83">
+        <v>-0.0847529728558669</v>
+      </c>
+      <c r="H83">
+        <v>-0.02057169834612852</v>
+      </c>
+      <c r="I83">
+        <v>-0.8352587424001323</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0005401196942515029</v>
+        <v>0.001034881407502872</v>
       </c>
       <c r="C84">
-        <v>-0.001749816493741616</v>
+        <v>-0.01884884391775674</v>
       </c>
       <c r="D84">
-        <v>-0.004901911029325156</v>
+        <v>-0.04717088771849183</v>
       </c>
       <c r="E84">
-        <v>0.0003648966631967896</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.002409299135565454</v>
+      </c>
+      <c r="F84">
+        <v>-0.02924383947878771</v>
+      </c>
+      <c r="G84">
+        <v>-0.05209743283672179</v>
+      </c>
+      <c r="H84">
+        <v>-0.004944540198924175</v>
+      </c>
+      <c r="I84">
+        <v>0.0660971964149336</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.141659161859227</v>
+        <v>-0.05894783246773456</v>
       </c>
       <c r="C85">
-        <v>0.1381296354708175</v>
+        <v>-0.1826824491135773</v>
       </c>
       <c r="D85">
-        <v>0.03874144672460542</v>
+        <v>0.09193980030130336</v>
       </c>
       <c r="E85">
-        <v>0.02715217839683223</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0006258988655344651</v>
+      </c>
+      <c r="F85">
+        <v>-0.07457390207159659</v>
+      </c>
+      <c r="G85">
+        <v>-0.02114674679955474</v>
+      </c>
+      <c r="H85">
+        <v>0.0132810019633006</v>
+      </c>
+      <c r="I85">
+        <v>-0.007954968819864735</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01310526087281275</v>
+        <v>-0.01214724998643583</v>
       </c>
       <c r="C86">
-        <v>0.01457353853424845</v>
+        <v>-0.03298676797546957</v>
       </c>
       <c r="D86">
-        <v>-0.07592510604143189</v>
+        <v>-0.1000436762967956</v>
       </c>
       <c r="E86">
-        <v>0.05028699773639351</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02195573610377009</v>
+      </c>
+      <c r="F86">
+        <v>0.0007174286004695006</v>
+      </c>
+      <c r="G86">
+        <v>0.004640692934015735</v>
+      </c>
+      <c r="H86">
+        <v>-0.02198441496208865</v>
+      </c>
+      <c r="I86">
+        <v>-0.02761955383782915</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01867650672552261</v>
+        <v>-0.01206428158859998</v>
       </c>
       <c r="C87">
-        <v>0.0235639350738887</v>
+        <v>-0.0561607679138301</v>
       </c>
       <c r="D87">
-        <v>-0.1350806658036079</v>
+        <v>-0.1461470078638907</v>
       </c>
       <c r="E87">
-        <v>0.05482173512383878</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.0123270413761502</v>
+      </c>
+      <c r="F87">
+        <v>-0.04603977696976476</v>
+      </c>
+      <c r="G87">
+        <v>-0.05937049425142966</v>
+      </c>
+      <c r="H87">
+        <v>-0.02382266971072785</v>
+      </c>
+      <c r="I87">
+        <v>-0.04405122724385528</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.0534259090153159</v>
+        <v>-0.03491299576247241</v>
       </c>
       <c r="C88">
-        <v>0.04478442467101662</v>
+        <v>-0.06592125391209289</v>
       </c>
       <c r="D88">
-        <v>-0.02688053376499697</v>
+        <v>-0.01076371992399832</v>
       </c>
       <c r="E88">
-        <v>0.03021117582034459</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02545384891410288</v>
+      </c>
+      <c r="F88">
+        <v>-0.01750870742940086</v>
+      </c>
+      <c r="G88">
+        <v>0.008416872049790388</v>
+      </c>
+      <c r="H88">
+        <v>-0.01752764554570327</v>
+      </c>
+      <c r="I88">
+        <v>0.03012857021987825</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3178240646588973</v>
+        <v>-0.4070031577089508</v>
       </c>
       <c r="C89">
-        <v>-0.3286457280902761</v>
+        <v>0.1590893916459024</v>
       </c>
       <c r="D89">
-        <v>-0.01521065298032681</v>
+        <v>-0.02830881775875949</v>
       </c>
       <c r="E89">
-        <v>0.09660198864532805</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.05580947643187091</v>
+      </c>
+      <c r="F89">
+        <v>-0.07185166079747257</v>
+      </c>
+      <c r="G89">
+        <v>-0.04841224933019006</v>
+      </c>
+      <c r="H89">
+        <v>-0.1187003957094298</v>
+      </c>
+      <c r="I89">
+        <v>-0.05198454553068112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2531759986648521</v>
+        <v>-0.3175767230953329</v>
       </c>
       <c r="C90">
-        <v>-0.2406967386219163</v>
+        <v>0.1074862766732374</v>
       </c>
       <c r="D90">
-        <v>-0.03743889643963812</v>
+        <v>-0.0317045418606959</v>
       </c>
       <c r="E90">
-        <v>-0.007090312486466914</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01238139330237134</v>
+      </c>
+      <c r="F90">
+        <v>0.00716439982769981</v>
+      </c>
+      <c r="G90">
+        <v>-0.06587911387190377</v>
+      </c>
+      <c r="H90">
+        <v>0.0272701413431193</v>
+      </c>
+      <c r="I90">
+        <v>-0.04138094225848404</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1565135582592307</v>
+        <v>-0.06983602013089009</v>
       </c>
       <c r="C91">
-        <v>0.1873058305343383</v>
+        <v>-0.2091979991682732</v>
       </c>
       <c r="D91">
-        <v>0.09823739498208697</v>
+        <v>0.1109029762057455</v>
       </c>
       <c r="E91">
-        <v>0.09364558388689322</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.0613867559406323</v>
+      </c>
+      <c r="F91">
+        <v>-0.07249308595003513</v>
+      </c>
+      <c r="G91">
+        <v>-0.006204601419859658</v>
+      </c>
+      <c r="H91">
+        <v>0.003839048897292188</v>
+      </c>
+      <c r="I91">
+        <v>-0.0459686120545483</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2394690151728273</v>
+        <v>-0.3367427754469419</v>
       </c>
       <c r="C92">
-        <v>-0.2630923349367484</v>
+        <v>0.1453603140968139</v>
       </c>
       <c r="D92">
-        <v>0.05138305600178571</v>
+        <v>5.974026722368143e-05</v>
       </c>
       <c r="E92">
-        <v>0.05109915878439948</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.06615530383911025</v>
+      </c>
+      <c r="F92">
+        <v>-0.02932644619516992</v>
+      </c>
+      <c r="G92">
+        <v>-0.02444492781345893</v>
+      </c>
+      <c r="H92">
+        <v>-0.02281090317338545</v>
+      </c>
+      <c r="I92">
+        <v>0.2436769621163154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2789639640931824</v>
+        <v>-0.3343247067532593</v>
       </c>
       <c r="C93">
-        <v>-0.2525379839138827</v>
+        <v>0.1177094989893382</v>
       </c>
       <c r="D93">
-        <v>-0.01441447615695694</v>
+        <v>0.01890075157959578</v>
       </c>
       <c r="E93">
-        <v>0.003029680600274631</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02524668018450289</v>
+      </c>
+      <c r="F93">
+        <v>-0.00715765047202235</v>
+      </c>
+      <c r="G93">
+        <v>0.02084707573967551</v>
+      </c>
+      <c r="H93">
+        <v>-0.0006463223781290203</v>
+      </c>
+      <c r="I93">
+        <v>0.002742740628171927</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2981246513993594</v>
+        <v>-0.1330270297724997</v>
       </c>
       <c r="C94">
-        <v>0.2726443882235167</v>
+        <v>-0.3558281115574114</v>
       </c>
       <c r="D94">
-        <v>0.3486135297712284</v>
+        <v>0.3512262132067007</v>
       </c>
       <c r="E94">
-        <v>-0.2099297833896806</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.05974174291567095</v>
+      </c>
+      <c r="F94">
+        <v>0.09278581861516197</v>
+      </c>
+      <c r="G94">
+        <v>-0.2998756907867479</v>
+      </c>
+      <c r="H94">
+        <v>0.09474627087875966</v>
+      </c>
+      <c r="I94">
+        <v>0.1368479510352733</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.0148955546977303</v>
+        <v>-0.01948599634631247</v>
       </c>
       <c r="C95">
-        <v>0.03717828993819988</v>
+        <v>-0.06230759862538753</v>
       </c>
       <c r="D95">
-        <v>-0.02108441440129276</v>
+        <v>-0.108319019017312</v>
       </c>
       <c r="E95">
-        <v>0.08881744735456702</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1546577450916889</v>
+      </c>
+      <c r="F95">
+        <v>0.01980328285482092</v>
+      </c>
+      <c r="G95">
+        <v>0.02652862414492099</v>
+      </c>
+      <c r="H95">
+        <v>-0.405777134944375</v>
+      </c>
+      <c r="I95">
+        <v>0.197452794847542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.001190458812068531</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0005348582941141954</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0007973742948829201</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003463613369261606</v>
+      </c>
+      <c r="F97">
+        <v>-0.0002165460391278986</v>
+      </c>
+      <c r="G97">
+        <v>-0.000781535769669929</v>
+      </c>
+      <c r="H97">
+        <v>-0.003310015051219622</v>
+      </c>
+      <c r="I97">
+        <v>0.004620847209559342</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1444036276239559</v>
+        <v>-0.115892081005885</v>
       </c>
       <c r="C98">
-        <v>0.08530065826292541</v>
+        <v>-0.1493582777623552</v>
       </c>
       <c r="D98">
-        <v>-0.1545754425633972</v>
+        <v>-0.06816113680082976</v>
       </c>
       <c r="E98">
-        <v>-0.1966988063102179</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2035630344335671</v>
+      </c>
+      <c r="F98">
+        <v>0.2492926122457906</v>
+      </c>
+      <c r="G98">
+        <v>0.3038259955972584</v>
+      </c>
+      <c r="H98">
+        <v>0.1148158324227053</v>
+      </c>
+      <c r="I98">
+        <v>-0.04274957109244935</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001354837945009069</v>
+        <v>-0.0009987277710007219</v>
       </c>
       <c r="C101">
-        <v>0.02027130831776483</v>
+        <v>-0.03397591018398157</v>
       </c>
       <c r="D101">
-        <v>-0.0962662993590815</v>
+        <v>-0.102206464503047</v>
       </c>
       <c r="E101">
-        <v>0.01634707625625209</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.05540405897247842</v>
+      </c>
+      <c r="F101">
+        <v>-0.038663146337857</v>
+      </c>
+      <c r="G101">
+        <v>-0.02281802260653681</v>
+      </c>
+      <c r="H101">
+        <v>-0.1319170489787182</v>
+      </c>
+      <c r="I101">
+        <v>0.01311028730626985</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1063448518904989</v>
+        <v>-0.02962872557343799</v>
       </c>
       <c r="C102">
-        <v>0.15748044904334</v>
+        <v>-0.1500821095279463</v>
       </c>
       <c r="D102">
-        <v>0.06497819789655704</v>
+        <v>0.09600701974419082</v>
       </c>
       <c r="E102">
-        <v>-0.04858326638001918</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.0346999525415727</v>
+      </c>
+      <c r="F102">
+        <v>0.0603561228253137</v>
+      </c>
+      <c r="G102">
+        <v>-0.007844932756333637</v>
+      </c>
+      <c r="H102">
+        <v>-0.05227380440579945</v>
+      </c>
+      <c r="I102">
+        <v>-0.02894338324444644</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
